--- a/output/Sanikiluaq/k_7/clusters_data.xlsx
+++ b/output/Sanikiluaq/k_7/clusters_data.xlsx
@@ -56,49 +56,274 @@
     <t>961</t>
   </si>
   <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
     <t>960</t>
   </si>
   <si>
-    <t>941</t>
-  </si>
-  <si>
     <t>959</t>
   </si>
   <si>
-    <t>944</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>945</t>
-  </si>
-  <si>
-    <t>962</t>
+    <t>910</t>
+  </si>
+  <si>
+    <t>909</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>957</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>934</t>
+    <t>912</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>918</t>
   </si>
   <si>
     <t>920</t>
   </si>
   <si>
-    <t>937</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>939</t>
+    <t>917</t>
   </si>
   <si>
     <t>926</t>
@@ -110,22 +335,7 @@
     <t>927</t>
   </si>
   <si>
-    <t>929</t>
-  </si>
-  <si>
-    <t>928</t>
-  </si>
-  <si>
-    <t>936</t>
-  </si>
-  <si>
-    <t>942</t>
-  </si>
-  <si>
-    <t>943</t>
-  </si>
-  <si>
-    <t>950</t>
+    <t>102</t>
   </si>
   <si>
     <t>208</t>
@@ -137,21 +347,78 @@
     <t>114</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>205</t>
   </si>
   <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
     <t>203</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>109</t>
   </si>
   <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
     <t>115</t>
   </si>
   <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
     <t>209</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>207</t>
   </si>
   <si>
@@ -164,295 +431,28 @@
     <t>111</t>
   </si>
   <si>
-    <t>204</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
     <t>107</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>707</t>
-  </si>
-  <si>
-    <t>824</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
-    <t>704</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>908</t>
-  </si>
-  <si>
-    <t>918</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>917</t>
   </si>
 </sst>
 </file>
@@ -793,18 +793,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:43">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -895,419 +895,419 @@
       <c r="AD2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" t="s">
+      <c r="Q3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" t="s">
+      <c r="R3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="S3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" t="s">
-        <v>73</v>
-      </c>
-      <c r="V5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+        <v>101</v>
+      </c>
+      <c r="P6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="Q7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="R7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="S7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="T7" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" t="s">
         <v>110</v>
       </c>
-      <c r="U7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="V7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" t="s">
-        <v>122</v>
-      </c>
-      <c r="N8" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>126</v>
-      </c>
-      <c r="R8" t="s">
-        <v>127</v>
-      </c>
-      <c r="S8" t="s">
-        <v>128</v>
-      </c>
-      <c r="T8" t="s">
-        <v>129</v>
-      </c>
-      <c r="U8" t="s">
-        <v>130</v>
-      </c>
-      <c r="V8" t="s">
-        <v>131</v>
-      </c>
-      <c r="W8" t="s">
-        <v>132</v>
-      </c>
-      <c r="X8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ8" t="s">
         <v>145</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1317,45 +1317,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1363,46 +1384,43 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
